--- a/src/resources/form/DsKhachHang.xlsx
+++ b/src/resources/form/DsKhachHang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST\IT3150 Project I - CNPM\De tai Nhom\QuanLyKhachSan\src\resources\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA308C28-21C5-4B98-B14A-13979E64FABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483933F8-758B-4C00-91A8-FE85E8665097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A146871-5C2D-436F-A271-0B59F7EFC1E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM
 Độc lập - Tự do – Hạnh phúc
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Khách sạn</t>
   </si>
 </sst>
 </file>
@@ -163,20 +160,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -193,6 +190,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>576470</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1515000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for hotel logo&quot;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8526B6-E519-4739-981A-A86B42AE0ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1802296" y="0"/>
+          <a:ext cx="938530" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +553,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,19 +570,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -539,43 +592,43 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -627,5 +680,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>